--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7AF283-B641-451B-96B8-D7BDA301AD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03768834-8C06-49FA-AC1A-6D16A196EA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="121">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -460,9 +460,6 @@
     <t>Re-tested</t>
   </si>
   <si>
-    <t>not yet</t>
-  </si>
-  <si>
     <t>Grigorescu Lorena</t>
   </si>
   <si>
@@ -470,29 +467,6 @@
   </si>
   <si>
     <t>Ghinea Bogdan-Florin</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Pentru fiecare plata realizata se retin intr-un fisier urmatoarele detalii: masa, tipul platii (cash sau card)
-card) si valoarea achitata.</t>
-    </r>
   </si>
   <si>
     <t>1.Pizza Shop</t>
@@ -523,15 +497,6 @@
     </r>
   </si>
   <si>
-    <t>table is int</t>
-  </si>
-  <si>
-    <t>table not in {1,2,3,4,5,6,7,8}</t>
-  </si>
-  <si>
-    <t>paymentType is Enum</t>
-  </si>
-  <si>
     <t>paymentType not in {CASH, CARD}</t>
   </si>
   <si>
@@ -541,9 +506,6 @@
     <t xml:space="preserve">               paymentType = {CASH, CARD}</t>
   </si>
   <si>
-    <t>amount is double</t>
-  </si>
-  <si>
     <t>amount &gt; 0</t>
   </si>
   <si>
@@ -568,18 +530,12 @@
     <t>payment added</t>
   </si>
   <si>
-    <t>2,3,5</t>
-  </si>
-  <si>
     <t>CARD</t>
   </si>
   <si>
     <t>Error: illegal table number</t>
   </si>
   <si>
-    <t>1,3,6</t>
-  </si>
-  <si>
     <t>Error: illegal amount</t>
   </si>
   <si>
@@ -613,18 +569,9 @@
     <t xml:space="preserve">8. amount = 0 </t>
   </si>
   <si>
-    <t>9. amount = max - 1</t>
-  </si>
-  <si>
-    <t>10. amount = max + 1</t>
-  </si>
-  <si>
     <t>11. amount = max</t>
   </si>
   <si>
-    <t xml:space="preserve"> …</t>
-  </si>
-  <si>
     <t>0+eps</t>
   </si>
   <si>
@@ -656,6 +603,98 @@
   </si>
   <si>
     <t>1,8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>F01.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pentru fiecare plata realizata se retin intr-un fisier urmatoarele detalii: masa, tipul platii (cash sau card) si valoarea achitata.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3,5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,6</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">table in [1,8] </t>
+  </si>
+  <si>
+    <t>TABLE &lt; 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TABLE &gt; 8</t>
+  </si>
+  <si>
+    <t>paymentType is {CASH, CARD}</t>
+  </si>
+  <si>
+    <t>10. amount = max + eps</t>
+  </si>
+  <si>
+    <t>9. amount = max - eps</t>
+  </si>
+  <si>
+    <t>eps = 0.001</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>nu s-a aruncat eroare</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1443,6 +1482,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1458,80 +1503,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1539,35 +1615,86 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1578,19 +1705,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1608,88 +1729,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1999,8 +2050,8 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:J16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2013,12 +2064,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
       <c r="H1" s="49" t="s">
         <v>1</v>
       </c>
@@ -2026,11 +2077,11 @@
       <c r="J1" s="49"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -2046,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="2">
         <v>233</v>
@@ -2057,7 +2108,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="2">
         <v>233</v>
@@ -2069,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="2">
         <v>233</v>
@@ -2110,7 +2161,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2122,17 +2173,17 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="131" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
+      <c r="B16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
@@ -2151,7 +2202,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -2195,21 +2246,21 @@
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46"/>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="48"/>
@@ -2231,10 +2282,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:M22"/>
+  <dimension ref="B1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2253,39 +2304,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="B3" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="G5" s="77" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="G5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
@@ -2300,255 +2351,255 @@
       <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="64" t="s">
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="64"/>
+      <c r="M6" s="79"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="B7" s="23">
         <v>1</v>
       </c>
-      <c r="C7" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="61"/>
+      <c r="C7" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="70"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="84"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="23">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="2">
-        <v>100</v>
-      </c>
-      <c r="L8" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="M8" s="57"/>
+        <v>113</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="82"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="G9" s="23">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="2">
-        <v>15</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K9" s="2">
         <v>100</v>
       </c>
-      <c r="L9" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="57"/>
+      <c r="L9" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="76"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="G10" s="23">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="2">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="76"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="36">
+      <c r="C11" s="59"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="36">
         <v>3</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="H11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="14">
         <v>2</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="14">
+      <c r="J11" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="14">
         <v>-100</v>
       </c>
-      <c r="L10" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="67"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="L11" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="G11" s="36">
+      <c r="C12" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="G12" s="36">
         <v>4</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="67"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
-        <v>6</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="13">
-        <v>5</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
-        <v>7</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>31</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C13" s="61"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="G13" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="69"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
-        <v>8</v>
-      </c>
-      <c r="C14" s="72"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="G14" s="19">
-        <v>7</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="59"/>
+      <c r="G14" s="13">
+        <v>6</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="74"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
-        <v>9</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>31</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C15" s="61"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
-        <v>10</v>
-      </c>
-      <c r="C16" s="72"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="19">
+        <v>8</v>
+      </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
-        <v>11</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>31</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C17" s="61"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="19"/>
@@ -2556,14 +2607,16 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="70"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
-        <v>12</v>
-      </c>
-      <c r="C18" s="70"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>31</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="19"/>
@@ -2571,72 +2624,87 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="59"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="70"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
-        <v>13</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>31</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C19" s="59"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
-        <v>14</v>
-      </c>
-      <c r="C20" s="70"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>31</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
+      <c r="G20" s="23"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="70"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>14</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:M5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2649,8 +2717,8 @@
   </sheetPr>
   <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:O17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2671,41 +2739,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
     </row>
     <row r="6" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
@@ -2718,61 +2789,61 @@
         <v>36</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="82" t="s">
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="84"/>
-    </row>
-    <row r="7" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="71">
+      <c r="O6" s="92"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="60">
         <v>1</v>
       </c>
-      <c r="C7" s="88" t="s">
-        <v>95</v>
+      <c r="C7" s="85" t="s">
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="61"/>
+      <c r="O7" s="82"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="87"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G8" s="23">
         <v>1</v>
@@ -2783,24 +2854,28 @@
       <c r="I8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="K8" s="33">
         <v>1</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" s="81"/>
+        <v>84</v>
+      </c>
+      <c r="M8" s="34">
+        <v>100</v>
+      </c>
+      <c r="N8" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="87"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G9" s="19">
         <v>2</v>
@@ -2809,26 +2884,28 @@
         <v>2</v>
       </c>
       <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="J9" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="K9" s="22">
         <v>0</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="O9" s="69"/>
+        <v>105</v>
+      </c>
+      <c r="M9" s="34">
+        <v>100</v>
+      </c>
+      <c r="N9" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="74"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="87"/>
-      <c r="C10" s="89"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G10" s="23">
         <v>3</v>
@@ -2837,26 +2914,28 @@
         <v>3</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="K10" s="33">
         <v>2</v>
       </c>
-      <c r="L10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="80" t="s">
+      <c r="L10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="34">
+        <v>100</v>
+      </c>
+      <c r="N10" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="94"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="84"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="O10" s="81"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="87"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="G11" s="23">
         <v>4</v>
@@ -2865,26 +2944,28 @@
         <v>4</v>
       </c>
       <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="K11" s="33">
         <v>8</v>
       </c>
-      <c r="L11" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11" s="81"/>
+      <c r="L11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="34">
+        <v>100</v>
+      </c>
+      <c r="N11" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="94"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="72"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G12" s="23">
         <v>5</v>
@@ -2893,27 +2974,29 @@
         <v>5</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="K12" s="33">
         <v>7</v>
       </c>
-      <c r="L12" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="O12" s="81"/>
+      <c r="L12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="34">
+        <v>100</v>
+      </c>
+      <c r="N12" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="94"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="71">
+      <c r="B13" s="60">
         <v>2</v>
       </c>
-      <c r="C13" s="71" t="s">
-        <v>102</v>
+      <c r="C13" s="60" t="s">
+        <v>94</v>
       </c>
       <c r="D13" s="2"/>
       <c r="G13" s="19">
@@ -2923,24 +3006,26 @@
         <v>6</v>
       </c>
       <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="J13" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="K13" s="22">
         <v>9</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="O13" s="69"/>
+        <v>105</v>
+      </c>
+      <c r="M13" s="34">
+        <v>100</v>
+      </c>
+      <c r="N13" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" s="74"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="2"/>
       <c r="G14" s="23">
         <v>7</v>
@@ -2952,25 +3037,25 @@
         <v>31</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>31</v>
+        <v>119</v>
+      </c>
+      <c r="K14" s="34">
+        <v>1</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="M14" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="O14" s="81"/>
+        <v>98</v>
+      </c>
+      <c r="N14" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="94"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="2"/>
       <c r="G15" s="23">
         <v>8</v>
@@ -2982,25 +3067,25 @@
         <v>31</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>31</v>
+        <v>119</v>
+      </c>
+      <c r="K15" s="34">
+        <v>1</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="M15" s="33">
         <v>0</v>
       </c>
-      <c r="N15" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="O15" s="81"/>
+      <c r="N15" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="94"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="2"/>
       <c r="G16" s="23">
         <v>9</v>
@@ -3009,24 +3094,26 @@
         <v>9</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>34</v>
+      <c r="J16" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="34">
+        <v>1</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="N16" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="O16" s="81"/>
+        <v>99</v>
+      </c>
+      <c r="N16" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="94"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="2"/>
       <c r="G17" s="23">
         <v>10</v>
@@ -3038,21 +3125,21 @@
       <c r="J17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>31</v>
+      <c r="K17" s="34">
+        <v>1</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="N17" s="80"/>
-      <c r="O17" s="81"/>
+        <v>100</v>
+      </c>
+      <c r="N17" s="93"/>
+      <c r="O17" s="94"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="2"/>
       <c r="G18" s="23">
         <v>11</v>
@@ -3061,29 +3148,31 @@
         <v>11</v>
       </c>
       <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>31</v>
+      <c r="J18" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="34">
+        <v>1</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="71">
+      <c r="B19" s="60">
         <v>3</v>
       </c>
-      <c r="C19" s="88" t="s">
-        <v>82</v>
+      <c r="C19" s="85" t="s">
+        <v>76</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G19" s="23">
         <v>12</v>
@@ -3094,14 +3183,14 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="81"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="94"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="87"/>
-      <c r="C20" s="89"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G20" s="23">
         <v>13</v>
@@ -3112,12 +3201,12 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="81"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="94"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="87"/>
-      <c r="C21" s="89"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="2"/>
       <c r="G21" s="23">
         <v>14</v>
@@ -3128,14 +3217,14 @@
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="81"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="94"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="87"/>
-      <c r="C22" s="89"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G22" s="23">
         <v>15</v>
@@ -3146,14 +3235,14 @@
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="81"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="94"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="87"/>
-      <c r="C23" s="89"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G23" s="23">
         <v>16</v>
@@ -3164,14 +3253,14 @@
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="81"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="94"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="72"/>
-      <c r="C24" s="90"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G24" s="23">
         <v>17</v>
@@ -3182,14 +3271,14 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="81"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="94"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="71">
+      <c r="B25" s="60">
         <v>4</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="85" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3204,58 +3293,81 @@
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="81"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="94"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="87"/>
-      <c r="C26" s="89"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="87"/>
-      <c r="C27" s="89"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="87"/>
-      <c r="C28" s="89"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="87"/>
-      <c r="C29" s="89"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="72"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="2" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3272,29 +3384,6 @@
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3310,7 +3399,7 @@
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3326,70 +3415,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="64"/>
+      <c r="N4" s="79"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="108"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="123"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>33</v>
@@ -3397,10 +3486,10 @@
       <c r="J5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="117" t="s">
+      <c r="K5" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="118"/>
+      <c r="L5" s="99"/>
       <c r="M5" s="26" t="s">
         <v>29</v>
       </c>
@@ -3412,7 +3501,7 @@
       <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="113" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -3422,10 +3511,10 @@
         <v>33</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H6" s="29">
         <v>122.78</v>
@@ -3436,17 +3525,17 @@
       <c r="J6" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="119" t="s">
+      <c r="K6" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="120" t="s">
+      <c r="L6" s="101" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -3454,9 +3543,9 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="106"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="31" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>33</v>
@@ -3465,7 +3554,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H7" s="8">
         <v>122.78</v>
@@ -3476,15 +3565,15 @@
       <c r="J7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="126" t="s">
+      <c r="K7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="127"/>
+      <c r="L7" s="108"/>
       <c r="M7" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -3492,7 +3581,7 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="106"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="31" t="s">
         <v>33</v>
       </c>
@@ -3530,7 +3619,7 @@
         <f>B8+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="106"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="31" t="s">
         <v>31</v>
       </c>
@@ -3552,10 +3641,10 @@
       <c r="J9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="128" t="s">
+      <c r="K9" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="129"/>
+      <c r="L9" s="110"/>
       <c r="M9" s="12" t="s">
         <v>31</v>
       </c>
@@ -3568,7 +3657,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="106"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="31" t="s">
         <v>33</v>
       </c>
@@ -3576,23 +3665,23 @@
         <v>54</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H10" s="11">
         <v>122.78</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
       <c r="M10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -3600,7 +3689,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="106"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="31" t="s">
         <v>33</v>
       </c>
@@ -3611,20 +3700,20 @@
         <v>9</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H11" s="11">
         <v>122.78</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="122"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
       <c r="M11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>31</v>
+        <v>107</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -3632,7 +3721,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="106"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="31" t="s">
         <v>33</v>
       </c>
@@ -3644,8 +3733,8 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="122"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
       <c r="M12" s="5"/>
       <c r="N12" s="12" t="s">
         <v>31</v>
@@ -3656,7 +3745,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="107"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="32" t="s">
         <v>31</v>
       </c>
@@ -3676,10 +3765,10 @@
       <c r="J13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="116"/>
+      <c r="L13" s="97"/>
       <c r="M13" s="25" t="s">
         <v>31</v>
       </c>
@@ -3714,98 +3803,98 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
       <c r="G17" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="94" t="s">
+      <c r="H17" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="95"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="94" t="s">
+      <c r="I17" s="127"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="95"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="97"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="126"/>
     </row>
     <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="92" t="s">
+      <c r="E18" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="104" t="s">
+      <c r="G18" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="100" t="s">
+      <c r="H18" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="101"/>
-      <c r="J18" s="92" t="s">
+      <c r="I18" s="129"/>
+      <c r="J18" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="92" t="s">
+      <c r="K18" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="93" t="s">
+      <c r="L18" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="98" t="s">
+      <c r="M18" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="92" t="s">
+      <c r="N18" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="O18" s="92" t="s">
+      <c r="O18" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="93" t="s">
+      <c r="P18" s="123" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="113"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="123"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="42" t="s">
@@ -3815,7 +3904,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="40">
         <v>1</v>
@@ -3826,10 +3915,10 @@
       <c r="G20" s="44">
         <v>2</v>
       </c>
-      <c r="H20" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="112"/>
+      <c r="H20" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="119"/>
       <c r="J20" s="2">
         <v>1</v>
       </c>
@@ -3840,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="43" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O20" s="40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P20" s="41">
         <v>0</v>
@@ -3857,20 +3946,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -3887,12 +3968,20 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3901,9 +3990,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4051,19 +4143,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4087,9 +4175,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>